--- a/chat_websocket/database - 副本.xlsx
+++ b/chat_websocket/database - 副本.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SteveCodeBase\SteveWebsite\chat_websocket\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FAFA81E-711B-4205-A5E5-465A19B681A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="2160" yWindow="4344" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t>username</t>
   </si>
@@ -25,12 +31,6 @@
     <t>avatar</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>groups</t>
-  </si>
-  <si>
     <t>invitations</t>
   </si>
   <si>
@@ -46,9 +46,18 @@
     <t>Steve</t>
   </si>
   <si>
+    <t>野兽先辈</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
     <t>d41d8cd98f00b204e9800998ecf8427e</t>
   </si>
   <si>
+    <t>c4d038b4bed09fdb1471ef51ec3a32cd</t>
+  </si>
+  <si>
     <t>../static/avatars/Judy.JPG</t>
   </si>
   <si>
@@ -61,18 +70,47 @@
     <t>yes</t>
   </si>
   <si>
+    <t>no</t>
+  </si>
+  <si>
     <t>Vd8w5qHb</t>
+  </si>
+  <si>
+    <t>GHoaZ4LJ</t>
+  </si>
+  <si>
+    <t>v91ixlO3</t>
+  </si>
+  <si>
+    <t>contects</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡天赐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>001,野兽先辈、Steve</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>001,野兽先辈、Steve/002,网络程序设计项目组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>002,网络程序设计项目组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -80,8 +118,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -93,7 +138,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -116,26 +161,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -177,7 +244,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -209,9 +276,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -243,6 +328,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -418,14 +521,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -447,43 +552,111 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>